--- a/data/trans_orig/TAM_HOG-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/TAM_HOG-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>3.113610646571032</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.743931494913414</v>
+        <v>2.743931494913415</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>2.882476484190562</v>
@@ -693,7 +693,7 @@
         <v>3.060484477185794</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>2.863101060310825</v>
+        <v>2.863101060310824</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.75263647505149</v>
+        <v>2.761460325205169</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.04695390168895</v>
+        <v>3.062540859464207</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.957989736821455</v>
+        <v>2.960942928368445</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.598554394375034</v>
+        <v>2.593030417114199</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.744110697677312</v>
+        <v>2.741879695514628</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.100670462116117</v>
+        <v>3.094869061680727</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.863194052957747</v>
+        <v>2.843003827564379</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.852115202828198</v>
+        <v>2.84617277609745</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.780281486668579</v>
+        <v>2.791835929649871</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.126800758940196</v>
+        <v>3.12355945344503</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.943455086258921</v>
+        <v>2.95517576835448</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2.766196755603821</v>
+        <v>2.75602001603947</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.0465601759653</v>
+        <v>3.033429145948895</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.355482954824108</v>
+        <v>3.362219343645979</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.277225439982919</v>
+        <v>3.276855198792598</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.910396573131774</v>
+        <v>2.900537846809651</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.054958000001653</v>
+        <v>3.037422377078153</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.438515534865668</v>
+        <v>3.446414481110511</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.162287896965568</v>
+        <v>3.148435813531901</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.14152277471183</v>
+        <v>3.14706040387669</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.982205636531468</v>
+        <v>2.986887456077336</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.36487618845719</v>
+        <v>3.351622197249516</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3.172700085371476</v>
+        <v>3.184458693967688</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>2.985554410446886</v>
+        <v>2.971532390598445</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.032638727449255</v>
+        <v>3.018976474642704</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.107508181128991</v>
+        <v>3.125800446930135</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.005206252530067</v>
+        <v>3.008894167930078</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.653265922423764</v>
+        <v>2.645695909306938</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.163145304672996</v>
+        <v>3.16062419983334</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.040679601531078</v>
+        <v>3.036420085194837</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>3.024026224759811</v>
+        <v>3.020239509317995</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.79227106596349</v>
+        <v>2.795755360235509</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>3.123413864009484</v>
+        <v>3.127718801850803</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3.110360391541072</v>
+        <v>3.106898876309589</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3.049893985406556</v>
+        <v>3.049765270308611</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>2.747402235223952</v>
+        <v>2.746611674108951</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.259310425669344</v>
+        <v>3.253804762775252</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.338175926811108</v>
+        <v>3.349514185096812</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.233184177152052</v>
+        <v>3.238787772531588</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.921627873353688</v>
+        <v>2.913176980551349</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.418664232067416</v>
+        <v>3.407474753918977</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.242939225737578</v>
+        <v>3.244001152209012</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.258869428284811</v>
+        <v>3.253407698666127</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.031078478022172</v>
+        <v>3.031975896864305</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.295055343420403</v>
+        <v>3.294520953354014</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.264425962439732</v>
+        <v>3.268471895680223</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.207911262860931</v>
+        <v>3.204042033623438</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>2.926002650071831</v>
+        <v>2.926245265937716</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.069066495079219</v>
+        <v>3.073212867417106</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.067265704873857</v>
+        <v>3.067712315986061</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.734132591778617</v>
+        <v>2.721078216224694</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.5702817673858</v>
+        <v>2.555888733483758</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.036220123083921</v>
+        <v>3.02441442159023</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.001806418020516</v>
+        <v>2.992184764714153</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.759385894342223</v>
+        <v>2.771285394023075</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.617526717625891</v>
+        <v>2.623974427273923</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.083382272767754</v>
+        <v>3.103220112489172</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.073668533645125</v>
+        <v>3.085721444705761</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2.773148224484076</v>
+        <v>2.78118064758489</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>2.635577123950176</v>
+        <v>2.63544013671148</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.341660878386719</v>
+        <v>3.3425271422816</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.339598009718177</v>
+        <v>3.349410315605831</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.953930658207509</v>
+        <v>2.955697860210165</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.873498334925944</v>
+        <v>2.861758972391454</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.303607082015915</v>
+        <v>3.292371209993222</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.302279423936349</v>
+        <v>3.300604574931414</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.052533281666332</v>
+        <v>3.059640149045475</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.917484966646123</v>
+        <v>2.89320114912422</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.278323495455775</v>
+        <v>3.290853984406802</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.281330081588136</v>
+        <v>3.28680270527857</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.971935166193333</v>
+        <v>2.958038743375337</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>2.847487172938221</v>
+        <v>2.854872112457397</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>2.964078018270936</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>2.549619827872705</v>
+        <v>2.549619827872704</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.981459098193855</v>
+        <v>2.980925763987254</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.003234063192955</v>
+        <v>3.006684980170707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.879506417155918</v>
+        <v>2.884757376645652</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.343356029753203</v>
+        <v>2.340205753597838</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.944412259417713</v>
+        <v>2.935372976953301</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.986356210542596</v>
+        <v>2.981935237238016</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.769308842811091</v>
+        <v>2.769770888446137</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.491451132006145</v>
+        <v>2.492220898015465</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.002854908221084</v>
+        <v>2.994802988455826</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3.026164029354874</v>
+        <v>3.037620665287187</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2.868970583962202</v>
+        <v>2.867260019999109</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>2.455065452254478</v>
+        <v>2.448578059583245</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.216670390147823</v>
+        <v>3.211429904363076</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.273599656880574</v>
+        <v>3.278389603598062</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.193403464966821</v>
+        <v>3.191319157403659</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.679426138375953</v>
+        <v>2.669779012831001</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.210301971684045</v>
+        <v>3.196124732135555</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.231761765022678</v>
+        <v>3.23197457883679</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.027230802669525</v>
+        <v>3.024089748523117</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.697191472876561</v>
+        <v>2.70870841312899</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.176780956073586</v>
+        <v>3.172280123248036</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3.21630052203644</v>
+        <v>3.214669774395936</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3.058576138183486</v>
+        <v>3.06374367193551</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>2.648359077604851</v>
+        <v>2.644826457980034</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.091210399525463</v>
+        <v>3.086491542900624</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.148211233234233</v>
+        <v>3.135546458085429</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.785090278755479</v>
+        <v>2.769717959284097</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.427951525894078</v>
+        <v>2.431457459101825</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.337642721507546</v>
+        <v>3.302310447498463</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.994990909423822</v>
+        <v>2.973218975004138</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.841277578594788</v>
+        <v>2.849427344548713</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.521849969787059</v>
+        <v>2.521503246669924</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.27805442880839</v>
+        <v>3.267388977475877</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3.108116742049792</v>
+        <v>3.110427548436005</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2.868457997096995</v>
+        <v>2.86987558399818</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>2.509824301447974</v>
+        <v>2.518943992551532</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.456607615171486</v>
+        <v>3.475625341237342</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.498775359784193</v>
+        <v>3.495053303376696</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.212447016589267</v>
+        <v>3.205196513305456</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.738668340084728</v>
+        <v>2.751680791127622</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.729102341673151</v>
+        <v>3.698294278735696</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.338183561426849</v>
+        <v>3.32768283609243</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.189874298833874</v>
+        <v>3.191807807093837</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.749498992801533</v>
+        <v>2.74914263027127</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.566611308464824</v>
+        <v>3.547635691996001</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3.360808247874869</v>
+        <v>3.358356548711374</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3.133119409588304</v>
+        <v>3.132588716690405</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>2.714778845008095</v>
+        <v>2.713077841897641</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>2.795670371942734</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>2.693747326636667</v>
+        <v>2.693747326636665</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>3.03123519790704</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.987287707832728</v>
+        <v>2.984485452253433</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.959556660499677</v>
+        <v>2.96734284045515</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.944673446900975</v>
+        <v>2.954056853720082</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.433377002369489</v>
+        <v>2.425341771291088</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>2.786357247494</v>
+        <v>2.80074616553186</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.049502315690716</v>
+        <v>3.036914448478775</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.664081632351289</v>
+        <v>2.669537792834053</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.572681172724989</v>
+        <v>2.566027784611751</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.940106291716528</v>
+        <v>2.930683946910602</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3.061004985606315</v>
+        <v>3.059962704427873</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2.837363895460726</v>
+        <v>2.838550132965923</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>2.533292423880885</v>
+        <v>2.538603449587685</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.263296897521188</v>
+        <v>3.264407143667015</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.237717416176528</v>
+        <v>3.23671122951159</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.274458456562238</v>
+        <v>3.281234800730198</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.717066864134694</v>
+        <v>2.741668546709208</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.074543851975573</v>
+        <v>3.070978441511031</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.376211480465356</v>
+        <v>3.369221497723117</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.935730860291927</v>
+        <v>2.941592143791062</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.82774958137994</v>
+        <v>2.836933310135068</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>3.137582582955239</v>
+        <v>3.136967622471935</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3.269510355506854</v>
+        <v>3.289194450354723</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3.061639375878668</v>
+        <v>3.056841851452384</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>2.735674654351325</v>
+        <v>2.736818135863027</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.010455085786149</v>
+        <v>2.999938122349135</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.034666820326738</v>
+        <v>3.043200705216548</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.528089377760182</v>
+        <v>2.529079841362501</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.688019314253367</v>
+        <v>2.666779395356205</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.135942045159208</v>
+        <v>3.12797619278576</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.99149710728874</v>
+        <v>2.996384618085833</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.521176280891793</v>
+        <v>2.518784567479353</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.827713045071952</v>
+        <v>2.82604474330677</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.105601567507289</v>
+        <v>3.096917220408579</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3.050035087159426</v>
+        <v>3.039750028969875</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2.546015276584982</v>
+        <v>2.548263672491544</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>2.778800720202208</v>
+        <v>2.792073078666078</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.204871796412673</v>
+        <v>3.203862152249004</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.250653645765231</v>
+        <v>3.255392430994549</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.738991309540439</v>
+        <v>2.730940835983107</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.915473744960731</v>
+        <v>2.891153227306285</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.351074083303674</v>
+        <v>3.338580504338475</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.208448841709747</v>
+        <v>3.192842685536891</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.705365373702442</v>
+        <v>2.711715013312074</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.998280131758323</v>
+        <v>3.011011276618768</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.251995304766238</v>
+        <v>3.249697935558439</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3.200243621811103</v>
+        <v>3.191301031865672</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2.684283675946412</v>
+        <v>2.68840543647774</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>2.928821201340918</v>
+        <v>2.937187879356078</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.228978375362411</v>
+        <v>3.225205172639702</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.025809542955295</v>
+        <v>3.024165581358273</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.864633910984529</v>
+        <v>2.855146928870154</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.728894528443695</v>
+        <v>2.731802820278253</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.292920696292372</v>
+        <v>3.289453757181018</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.065330761374903</v>
+        <v>3.063721934574007</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>2.959903557011921</v>
+        <v>2.961138965251139</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>2.677974973085541</v>
+        <v>2.673937202185699</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>3.291579595956552</v>
+        <v>3.29480744372439</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3.076126655628675</v>
+        <v>3.073419382386819</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2.930765385465671</v>
+        <v>2.937128358169315</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>2.734826957940818</v>
+        <v>2.7340172548618</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.418973383700087</v>
+        <v>3.4170435338601</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.207305836572437</v>
+        <v>3.210308299912545</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.035417182992428</v>
+        <v>3.051163917269921</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2.928143234406746</v>
+        <v>2.933308734940582</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>3.489462297783598</v>
+        <v>3.49388125296048</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>3.253412409286321</v>
+        <v>3.255316020689565</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>3.140505906279726</v>
+        <v>3.142638156987917</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>2.844454986954054</v>
+        <v>2.841870031386993</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>3.430138066359393</v>
+        <v>3.428901369899608</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3.207059538773435</v>
+        <v>3.204416869683761</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3.061974745712292</v>
+        <v>3.061814918101859</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>2.853308986507384</v>
+        <v>2.851480461387163</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.122814187403312</v>
+        <v>3.122070985042953</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.127110462877301</v>
+        <v>3.127390985526335</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.89324287352741</v>
+        <v>2.897023214709269</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.675480044293677</v>
+        <v>2.677237946011624</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.176006538211604</v>
+        <v>3.170765200790224</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.106360952887475</v>
+        <v>3.103314161268094</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.876740728345611</v>
+        <v>2.875048633227923</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.761229671910955</v>
+        <v>2.762430733217808</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.161187822449524</v>
+        <v>3.161152654695599</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3.131052487486238</v>
+        <v>3.128614739043657</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2.899449637646806</v>
+        <v>2.895032186650647</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>2.732949027368992</v>
+        <v>2.732765260939675</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.213151503229673</v>
+        <v>3.207845283233538</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.213633143001911</v>
+        <v>3.212742734186661</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.984792559471357</v>
+        <v>2.988029891250296</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.775767383542931</v>
+        <v>2.774220136336768</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.265796640292091</v>
+        <v>3.265514244690142</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.193845136688305</v>
+        <v>3.19400809878598</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.960525346918643</v>
+        <v>2.963574173195549</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.84147270548802</v>
+        <v>2.84241258176009</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.222492029222322</v>
+        <v>3.223140815441151</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3.1913907444379</v>
+        <v>3.191641308692424</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2.966696829652078</v>
+        <v>2.957817511704896</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>2.795672667129362</v>
+        <v>2.795311192313626</v>
       </c>
     </row>
     <row r="31">
